--- a/data/trans_dic/P33b_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R2-Estudios-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,64; 32,02</t>
+          <t>24,88; 31,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>36,24; 41,78</t>
+          <t>36,31; 41,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>32,6; 37,11</t>
+          <t>32,71; 37,23</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,5; 13,44</t>
+          <t>10,36; 13,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,5; 19,54</t>
+          <t>14,95; 19,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,43; 15,99</t>
+          <t>13,36; 15,96</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,78; 14,08</t>
+          <t>8,71; 13,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,96; 16,26</t>
+          <t>12,06; 16,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,11; 14,38</t>
+          <t>11,08; 14,4</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,1; 15,63</t>
+          <t>13,16; 15,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,68; 23,16</t>
+          <t>19,56; 23,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,11; 19,3</t>
+          <t>17,16; 19,24</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,88; 31,87</t>
+          <t>24,64; 32,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>36,31; 41,76</t>
+          <t>36,24; 41,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>32,71; 37,23</t>
+          <t>32,6; 37,11</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,36; 13,36</t>
+          <t>10,5; 13,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,95; 19,45</t>
+          <t>14,5; 19,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,36; 15,96</t>
+          <t>13,43; 15,99</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,71; 13,88</t>
+          <t>8,78; 14,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,06; 16,7</t>
+          <t>11,96; 16,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,08; 14,4</t>
+          <t>11,11; 14,38</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,16; 15,75</t>
+          <t>13,1; 15,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,56; 23,14</t>
+          <t>19,68; 23,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,16; 19,24</t>
+          <t>17,11; 19,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R2-Estudios-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>28,31%</t>
+          <t>27,49%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>39,13%</t>
+          <t>38,47%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>34,86%</t>
+          <t>34,01%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,64; 32,02</t>
+          <t>23,88; 31,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>36,24; 41,78</t>
+          <t>35,65; 41,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>32,6; 37,11</t>
+          <t>31,7; 36,22</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,76%</t>
+          <t>16,31%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>13,37%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,5; 13,44</t>
+          <t>7,63; 12,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,5; 19,54</t>
+          <t>11,27; 18,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,43; 15,99</t>
+          <t>10,54; 14,86</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,11%</t>
+          <t>14,01%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>12,58%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,78; 14,08</t>
+          <t>8,66; 14,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,96; 16,26</t>
+          <t>11,91; 16,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,11; 14,38</t>
+          <t>11,0; 14,3</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>13,15%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>20,46%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,28%</t>
+          <t>16,91%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,1; 15,63</t>
+          <t>10,25; 14,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,68; 23,16</t>
+          <t>16,76; 22,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,11; 19,3</t>
+          <t>14,46; 18,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,88; 31,09</t>
+          <t>24,24; 31,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>35,65; 41,02</t>
+          <t>35,87; 41,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>31,7; 36,22</t>
+          <t>31,9; 36,22</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,63; 12,39</t>
+          <t>7,36; 12,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,27; 18,74</t>
+          <t>11,91; 18,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,54; 14,86</t>
+          <t>10,49; 15,01</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,66; 14,04</t>
+          <t>8,78; 13,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,91; 16,14</t>
+          <t>11,9; 16,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,0; 14,3</t>
+          <t>10,96; 14,48</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,25; 14,62</t>
+          <t>10,15; 14,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,76; 22,4</t>
+          <t>16,41; 22,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,46; 18,23</t>
+          <t>14,61; 18,28</t>
         </is>
       </c>
     </row>
@@ -760,4 +761,388 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se despierta durante la noche y tiene dificultad en volver a dormirse</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>141545</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>289770</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>431316</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>124824; 160398</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>270143; 310942</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>404501; 459345</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>879</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>240284</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>364897</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>605181</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>168560; 284773</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>266564; 422067</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>475119; 679558</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>71966</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>92501</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>164467</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>56769; 90315</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>78624; 107994</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>143246; 189331</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1307</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1859</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>453796</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>747169</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1200964</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>350142; 506909</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>599248; 816943</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1037422; 1298173</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>